--- a/benchmark/macro/result/results.xlsx
+++ b/benchmark/macro/result/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lwyeluo/Workspaces/lab-project/browser/tim-evaluate/benchmark/macro/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A95C9D8-401B-F849-868D-C2EB766589E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58484C2B-0BAF-1045-B222-65AF8052410C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCP-FMP" sheetId="11" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>https://krakenbenchmark.mozilla.org/kraken-1.1/driver</t>
   </si>
   <si>
-    <t>ai</t>
-  </si>
-  <si>
     <t>audio</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>json</t>
-  </si>
-  <si>
-    <t>stanford</t>
   </si>
   <si>
     <t>TIM-w/o-updating-frame-chain</t>
@@ -122,6 +116,12 @@
   </si>
   <si>
     <t>TIM-w/o-frame-chain-FMP</t>
+  </si>
+  <si>
+    <t>ai (path-finding)</t>
+  </si>
+  <si>
+    <t>stanford (crypto)</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1278,7 @@
                   <c:v>Total</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ai</c:v>
+                  <c:v>ai (path-finding)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>audio</c:v>
@@ -1290,7 +1290,7 @@
                   <c:v>json</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>stanford</c:v>
+                  <c:v>stanford (crypto)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1368,7 +1368,7 @@
                   <c:v>Total</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ai</c:v>
+                  <c:v>ai (path-finding)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>audio</c:v>
@@ -1380,7 +1380,7 @@
                   <c:v>json</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>stanford</c:v>
+                  <c:v>stanford (crypto)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,7 +1524,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="1"/>
-                  <a:t>Time Usages(ms)</a:t>
+                  <a:t>Time Usages (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3337,7 +3337,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3666,8 +3666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F524BED2-3A0E-DC44-B2FB-C43862FE7394}">
   <dimension ref="A1:V184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="82" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView topLeftCell="B1" zoomScale="82" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4198,7 +4198,7 @@
         <v>1112.6724999994001</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" t="str">
         <f>A125</f>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -9673,8 +9673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF6D407-A230-3D40-B23A-D945B9CC244C}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9690,19 +9690,19 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L1" t="str">
         <f>C1</f>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="M1" t="str">
         <f t="shared" ref="M1:Q1" si="0">D1</f>
-        <v>ai</v>
+        <v>ai (path-finding)</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="Q1" t="str">
         <f t="shared" si="0"/>
-        <v>stanford</v>
+        <v>stanford (crypto)</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">

--- a/benchmark/macro/result/results.xlsx
+++ b/benchmark/macro/result/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lwyeluo/Workspaces/lab-project/browser/tim-evaluate/benchmark/macro/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58484C2B-0BAF-1045-B222-65AF8052410C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C365DBDA-D788-3042-8463-BE0428A24B33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCP-FMP" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>AVERAGE</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>stanford (crypto)</t>
+  </si>
+  <si>
+    <t>AVERAGE exclude youtube</t>
   </si>
 </sst>
 </file>
@@ -3287,16 +3290,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>77439</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>635001</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>29429</xdr:rowOff>
+      <xdr:rowOff>168820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>46463</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>604025</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>139391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3664,10 +3667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F524BED2-3A0E-DC44-B2FB-C43862FE7394}">
-  <dimension ref="A1:V184"/>
+  <dimension ref="A1:W184"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="82" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="82" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4540,7 +4543,7 @@
         <v>1920.3417249998954</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>15</v>
       </c>
@@ -4577,7 +4580,7 @@
         <v>4991.3226500001683</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>16</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>5191.6772999979539</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>17</v>
       </c>
@@ -4651,7 +4654,7 @@
         <v>9676.6162999999542</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>18</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>935.02249999716798</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>19</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>748.16950000077395</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>20</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>739.87649999931398</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>1182.8380000013799</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>2</v>
       </c>
@@ -4799,7 +4802,7 @@
         <v>913.07999999821095</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>3</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>860.97249999828603</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>4</v>
       </c>
@@ -4859,8 +4862,11 @@
       <c r="V26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>5</v>
       </c>
@@ -4932,7 +4938,7 @@
         <v>1.0269451829728569</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>6</v>
       </c>
@@ -5000,8 +5006,12 @@
         <f>AVERAGE(N28:U28)</f>
         <v>1.0292500105759319</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W28">
+        <f>(N28+SUM(P28:U28))/7</f>
+        <v>1.0336826577058975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>7</v>
       </c>
@@ -5069,8 +5079,12 @@
         <f>AVERAGE(N29:U29)</f>
         <v>1.142065284176792</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W29">
+        <f>(N29+SUM(P29:U29))/7</f>
+        <v>1.0282620684153823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>8</v>
       </c>
@@ -5139,7 +5153,7 @@
         <v>0.96280567097494829</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>9</v>
       </c>
@@ -5208,7 +5222,7 @@
         <v>0.96427938494781107</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>10</v>
       </c>
@@ -9665,6 +9679,7 @@
     <hyperlink ref="P2" r:id="rId3" display="www.facebook.com" xr:uid="{4580EBDD-838B-104E-901F-649E251C231E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
@@ -9673,8 +9688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF6D407-A230-3D40-B23A-D945B9CC244C}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/benchmark/macro/result/results.xlsx
+++ b/benchmark/macro/result/results.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FCP-FMP" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Kraken" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="FCP-FMP-191212" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Kraken" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="FCP-FMP-191224" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t xml:space="preserve">-</t>
   </si>
@@ -101,6 +103,21 @@
     <t xml:space="preserve">TIM-w/o-frame-chain-FMP</t>
   </si>
   <si>
+    <t xml:space="preserve">##### we have 10 round(s) #####</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM (Fallback)-FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM (Fallback)-FCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM (Fallback)-FMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
@@ -124,6 +141,21 @@
   <si>
     <t xml:space="preserve">https://krakenbenchmark.mozilla.org/kraken-1.1/driver</t>
   </si>
+  <si>
+    <t xml:space="preserve">tmall.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baidu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sohu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taobao.com</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,6 +221,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="13"/>
       <color rgb="FF595959"/>
@@ -241,12 +279,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +312,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -298,20 +340,20 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFDADADA"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF636363"/>
       <rgbColor rgb="FFABABAB"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -323,7 +365,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -338,7 +380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FCP-FMP'!$M$4</c:f>
+              <c:f>'FCP-FMP'!$M$4:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -436,7 +478,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FCP-FMP'!$M$7</c:f>
+              <c:f>'FCP-FMP'!$M$7:$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -534,7 +576,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FCP-FMP'!$M$5</c:f>
+              <c:f>'FCP-FMP'!$M$5:$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -632,7 +674,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FCP-FMP'!$M$8</c:f>
+              <c:f>'FCP-FMP'!$M$8:$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -727,11 +769,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="56280123"/>
-        <c:axId val="93746218"/>
+        <c:axId val="20765408"/>
+        <c:axId val="41518344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56280123"/>
+        <c:axId val="20765408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,14 +809,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93746218"/>
+        <c:crossAx val="41518344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93746218"/>
+        <c:axId val="41518344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +897,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56280123"/>
+        <c:crossAx val="20765408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -893,7 +935,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -908,7 +950,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FCP-FMP'!$L$14</c:f>
+              <c:f>'FCP-FMP'!$L$14:$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -991,11 +1033,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="38804466"/>
-        <c:axId val="17405117"/>
+        <c:axId val="72577362"/>
+        <c:axId val="32441613"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38804466"/>
+        <c:axId val="72577362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,14 +1073,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17405117"/>
+        <c:crossAx val="32441613"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17405117"/>
+        <c:axId val="32441613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -1120,7 +1162,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38804466"/>
+        <c:crossAx val="72577362"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1158,7 +1200,366 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191212'!$M$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1482.47375000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11443.826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12016.1159499999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12461.5039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10192.75485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10610.7310999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5167.94769999976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6249.33199999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191212'!$M$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1847.62314999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11494.1538999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12103.6502500003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13098.8878000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9524.41490000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10972.7948888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4975.87569999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6479.6193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191212'!$M$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2039.27550000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21079.1825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11631.0797166666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12461.51725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9943.88774999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10238.75065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4783.84075000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5956.52659999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191212'!$M$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2410.84480000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35587.7690999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12103.7714500005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13098.99725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10302.0188999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9945.52860000023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5187.40584999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6479.69309999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="89811596"/>
+        <c:axId val="40581155"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89811596"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40581155"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40581155"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89811596"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1173,7 +1574,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kraken!$K$2</c:f>
+              <c:f>Kraken!$K$2:$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1259,7 +1660,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kraken!$K$3</c:f>
+              <c:f>Kraken!$K$3:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1342,11 +1743,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="23914817"/>
-        <c:axId val="3336020"/>
+        <c:axId val="16241472"/>
+        <c:axId val="8542674"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23914817"/>
+        <c:axId val="16241472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,14 +1783,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3336020"/>
+        <c:crossAx val="8542674"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3336020"/>
+        <c:axId val="8542674"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1871,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23914817"/>
+        <c:crossAx val="16241472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1508,6 +1909,805 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline-FCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$O$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>google.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>facebook.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>baidu.com</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>qq.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sohu.com</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>taobao.com</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>en.wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>amazon.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191224'!$O$2:$X$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>710.808850000263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6363.56399999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1709.64040000141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6584.39774999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>843.911599996686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5220.68040000796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2402.80060000122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1917.80399999917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6304.38434999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4621.24899999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIM (Fallback)-FCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$O$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>google.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>facebook.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>baidu.com</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>qq.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sohu.com</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>taobao.com</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>en.wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>amazon.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191224'!$O$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>760.314099999983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6553.55875000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2114.16229999959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6172.98100000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>898.193899995088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5269.18600000441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2188.29169999659</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1723.80710000098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6286.11094999984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4619.21859999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIM-FCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$O$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>google.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>facebook.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>baidu.com</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>qq.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sohu.com</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>taobao.com</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>en.wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>amazon.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191224'!$O$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>738.417499999888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6339.98624999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2130.31769999862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6277.97114999984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1027.44069999755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5099.55890000463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2225.69119999111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1673.35539999604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6245.89189999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4460.14830000019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline-FMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$O$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>google.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>facebook.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>baidu.com</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>qq.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sohu.com</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>taobao.com</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>en.wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>amazon.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191224'!$O$3:$X$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1483.73885000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13631.7151999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1709.71580000222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6584.40939999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>843.924299994111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5220.69140000343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2629.28049999774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1917.82509999871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6023.05659999976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5595.48769999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIM (Fallback)-FMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$O$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>google.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>facebook.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>baidu.com</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>qq.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sohu.com</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>taobao.com</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>en.wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>amazon.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191224'!$O$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1573.40766666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26053.1922500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2114.27320000231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6230.38344999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>898.330499994756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5269.32540000379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2671.90019999743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1723.92829999626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6006.20249999974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6143.47059999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TIM-FMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'FCP-FMP-191224'!$O$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>google.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tmall.com</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>facebook.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>baidu.com</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>qq.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sohu.com</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>taobao.com</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>en.wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>amazon.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FCP-FMP-191224'!$O$7:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1538.939625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29714.1339000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2130.42320000529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6278.08959999988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1027.55480000079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5099.66990000308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2909.81719999015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1673.47309999466</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5972.56239999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6511.3438500003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="91365015"/>
+        <c:axId val="97675537"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="91365015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97675537"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97675537"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91365015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="-6.25039064941559E-005"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1519,9 +2719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>479520</xdr:colOff>
+      <xdr:colOff>473400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1529,8 +2729,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16747200" y="0"/>
-        <a:ext cx="9068760" cy="3796560"/>
+        <a:off x="13403880" y="0"/>
+        <a:ext cx="7347960" cy="3790440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1542,16 +2742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>3960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
+      <xdr:colOff>568800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1559,8 +2759,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17903520" y="4296240"/>
-        <a:ext cx="6569280" cy="3106440"/>
+        <a:off x="14407920" y="4296240"/>
+        <a:ext cx="5258160" cy="3100320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1577,6 +2777,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>473760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>429480</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6969600" y="4207320"/>
+        <a:ext cx="7404480" cy="3237480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152280</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -1584,18 +2819,53 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>354600</xdr:colOff>
+      <xdr:colOff>348480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6752880" y="1885680"/>
-        <a:ext cx="6069600" cy="2939400"/>
+        <a:off x="5466960" y="1885680"/>
+        <a:ext cx="4920840" cy="2933280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>93240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>357480</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7485840" y="3506760"/>
+        <a:ext cx="9711720" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1615,18 +2885,18 @@
   </sheetPr>
   <dimension ref="A1:W184"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L46" activeCellId="0" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7643,15 +8913,3364 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:T94"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="11" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="0" t="str">
+        <f aca="false">C1</f>
+        <v>google.com</v>
+      </c>
+      <c r="N1" s="0" t="str">
+        <f aca="false">D1</f>
+        <v>youtube.com</v>
+      </c>
+      <c r="O1" s="0" t="str">
+        <f aca="false">E1</f>
+        <v>facebook.com</v>
+      </c>
+      <c r="P1" s="0" t="str">
+        <f aca="false">F1</f>
+        <v>en.wikipedia.org</v>
+      </c>
+      <c r="Q1" s="0" t="str">
+        <f aca="false">G1</f>
+        <v>amazon.com</v>
+      </c>
+      <c r="R1" s="0" t="str">
+        <f aca="false">H1</f>
+        <v>yahoo.com</v>
+      </c>
+      <c r="S1" s="0" t="str">
+        <f aca="false">I1</f>
+        <v>bing.com</v>
+      </c>
+      <c r="T1" s="0" t="str">
+        <f aca="false">J1</f>
+        <v>ask.com</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <f aca="false">A3</f>
+        <v>Baseline-FP</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">AVERAGE(C3:C12)</f>
+        <v>1436.89895</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">AVERAGE(D3:D12)</f>
+        <v>11443.8072499999</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">AVERAGE(E3:E12)</f>
+        <v>12016.0955499999</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">AVERAGE(F3:F12)</f>
+        <v>12461.4885499999</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">AVERAGE(G3:G12)</f>
+        <v>10192.73835</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">AVERAGE(H3:H12)</f>
+        <v>10341.0666</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">AVERAGE(I3:I12)</f>
+        <v>5223.42629999991</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">AVERAGE(J3:J12)</f>
+        <v>6249.31175000004</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1141.28999999998</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>10353.28</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>10897.1965</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>11362.4335</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>10059.016</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>10136.6485</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>3818.43799999985</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>5047.32050000003</v>
+      </c>
+      <c r="L3" s="0" t="str">
+        <f aca="false">A13</f>
+        <v>Baseline-FCP</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">AVERAGE(C13:C22)</f>
+        <v>1482.47375000001</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">AVERAGE(D13:D22)</f>
+        <v>11443.826</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">AVERAGE(E13:E22)</f>
+        <v>12016.1159499999</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">AVERAGE(F13:F22)</f>
+        <v>12461.5039</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">AVERAGE(G13:G22)</f>
+        <v>10192.75485</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">AVERAGE(H13:H22)</f>
+        <v>10610.7310999999</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">AVERAGE(I13:I22)</f>
+        <v>5167.94769999976</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">AVERAGE(J13:J22)</f>
+        <v>6249.33199999993</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1551.32500000007</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>12841.3790000001</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>11678.7669999999</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>14190.177</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>10966.6359999999</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>10567.324</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5387.07200000016</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>5932.82699999993</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <f aca="false">A23</f>
+        <v>Baseline-FMP</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">AVERAGE(C23:C32)</f>
+        <v>2039.27550000001</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">AVERAGE(D23:D32)</f>
+        <v>21079.1825</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">AVERAGE(E23:E32)</f>
+        <v>11631.0797166666</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">AVERAGE(F23:F32)</f>
+        <v>12461.51725</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">AVERAGE(G23:G32)</f>
+        <v>9943.88774999996</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">AVERAGE(H23:H32)</f>
+        <v>10238.75065</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">AVERAGE(I23:I32)</f>
+        <v>4783.84075000002</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">AVERAGE(J23:J32)</f>
+        <v>5956.52659999996</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1268.9084999999</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>11114.5079999999</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>12819.0795</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>12426.1570000001</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>9838.15599999996</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>9517.84550000005</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>6304.83999999985</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>6485.92300000018</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <f aca="false">A34</f>
+        <v>TIM-FP</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">AVERAGE(C34:C43)</f>
+        <v>1797.08854999989</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">AVERAGE(D34:D43)</f>
+        <v>11494.0580499997</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">AVERAGE(E34:E43)</f>
+        <v>12103.5739000002</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">AVERAGE(F34:F43)</f>
+        <v>13098.8151000001</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">AVERAGE(G34:G43)</f>
+        <v>9524.34005000013</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">AVERAGE(H34:H43)</f>
+        <v>10443.313</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">AVERAGE(I34:I43)</f>
+        <v>4975.73929999992</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">AVERAGE(J34:J43)</f>
+        <v>6479.53790000025</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1587.5625</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>12314.4385000002</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>12848.9845</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>12768.1754999999</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>10393.0010000002</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>11694.0625</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>6353.96799999988</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>7235.56550000003</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <f aca="false">A44</f>
+        <v>TIM-FCP</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">AVERAGE(C44:C53)</f>
+        <v>1847.62314999998</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">AVERAGE(D44:D53)</f>
+        <v>11494.1538999997</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">AVERAGE(E44:E53)</f>
+        <v>12103.6502500003</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">AVERAGE(F44:F53)</f>
+        <v>13098.8878000004</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">AVERAGE(G44:G53)</f>
+        <v>9524.41490000002</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">AVERAGE(H44:H53)</f>
+        <v>10972.7948888888</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">AVERAGE(I44:I53)</f>
+        <v>4975.87569999993</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">AVERAGE(J44:J53)</f>
+        <v>6479.6193</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1400.47249999968</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>11388.9329999997</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>11755.503</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>12045.7364999997</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>11160.1430000002</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>9156.51199999964</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>5277.29899999965</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>5876.93000000063</v>
+      </c>
+      <c r="L7" s="0" t="str">
+        <f aca="false">A54</f>
+        <v>TIM-FMP</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">AVERAGE(C54:C63)</f>
+        <v>2410.84480000008</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">AVERAGE(D54:D63)</f>
+        <v>35587.7690999994</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">AVERAGE(E54:E63)</f>
+        <v>12103.7714500005</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">AVERAGE(F54:F63)</f>
+        <v>13098.99725</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">AVERAGE(G54:G63)</f>
+        <v>10302.0188999999</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">AVERAGE(H54:H63)</f>
+        <v>9945.52860000023</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">AVERAGE(I54:I63)</f>
+        <v>5187.40584999994</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">AVERAGE(J54:J63)</f>
+        <v>6479.69309999999</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1433.50499999989</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10625.9730000002</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>11823.9525000001</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>11272.0449999995</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>9993.83749999991</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>8808.09500000067</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>3842.20600000024</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>5115.31600000057</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <f aca="false">A65</f>
+        <v>TIM (Fallback)-FP</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">AVERAGE(C65:C74)</f>
+        <v>1524.31465000004</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">AVERAGE(D65:D74)</f>
+        <v>11681.3115999997</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">AVERAGE(E65:E74)</f>
+        <v>11838.5428500001</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">AVERAGE(F65:F74)</f>
+        <v>13289.2379999998</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">AVERAGE(G65:G74)</f>
+        <v>10859.6579</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">AVERAGE(H65:H74)</f>
+        <v>10050.7850999999</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false">AVERAGE(I65:I74)</f>
+        <v>5237.71470000015</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">AVERAGE(J65:J74)</f>
+        <v>7417.86979999996</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1419.58650000021</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>10398.3264999995</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>13285.7125000004</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>12274.6239999998</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>9461.78200000012</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>11213.6614999999</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>5056.52699999977</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>8289.28100000043</v>
+      </c>
+      <c r="L9" s="0" t="str">
+        <f aca="false">A75</f>
+        <v>TIM (Fallback)-FCP</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">AVERAGE(C75:C84)</f>
+        <v>1543.20920000002</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">AVERAGE(D75:D84)</f>
+        <v>11681.3862499997</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">AVERAGE(E75:E84)</f>
+        <v>11838.6205</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">AVERAGE(F75:F84)</f>
+        <v>13289.5872999999</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">AVERAGE(G75:G84)</f>
+        <v>10859.7285999999</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">AVERAGE(H75:H84)</f>
+        <v>10804.37035</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">AVERAGE(I75:I84)</f>
+        <v>5237.8546000001</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">AVERAGE(J75:J84)</f>
+        <v>7417.95729999997</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1646.3730000006</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>11714.7484999998</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>11569.773</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>13299.1310000005</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>9845.56499999994</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>11645.0440000002</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>5511.79999999981</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>5189.29850000003</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <f aca="false">A85</f>
+        <v>TIM (Fallback)-FMP</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">AVERAGE(C85:C94)</f>
+        <v>2246.55645000021</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">AVERAGE(D85:D94)</f>
+        <v>30939.2851499999</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">AVERAGE(E85:E94)</f>
+        <v>11520.9831500001</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">AVERAGE(F85:F94)</f>
+        <v>13289.7061499998</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">AVERAGE(G85:G94)</f>
+        <v>11538.76335</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">AVERAGE(H85:H94)</f>
+        <v>9504.03414999989</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">AVERAGE(I85:I94)</f>
+        <v>5364.84135000022</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">AVERAGE(J85:J94)</f>
+        <v>7243.96953333322</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1608.5224999995</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>11117.5334999999</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>12041.1119999997</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>12659.7115000002</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>9641.53699999955</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>10364.6629999997</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>7163.82400000095</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>6350.09449999966</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1311.44400000013</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>12568.9524999997</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>11440.8749999991</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>12316.6944999993</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>10567.71</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>10306.8099999996</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>3518.28899999894</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>6970.5614999989</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <f aca="false">L5</f>
+        <v>TIM-FP</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">M5/M2</f>
+        <v>1.25067148945992</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">N5/N2</f>
+        <v>1.00439109108552</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">O5/O2</f>
+        <v>1.00728009773527</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">P5/P2</f>
+        <v>1.05114369342338</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">Q5/Q2</f>
+        <v>0.934424069661334</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">R5/R2</f>
+        <v>1.00988741335444</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">S5/S2</f>
+        <v>0.952581507659064</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">T5/T2</f>
+        <v>1.03684024084736</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1141.34850000002</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10353.297</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10897.2165</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>11362.4475</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>10059.0380000001</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>10136.6724999999</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3818.45399999991</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>5047.34450000001</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <f aca="false">L6</f>
+        <v>TIM-FCP</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">M6/M3</f>
+        <v>1.24631087059718</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">N6/N3</f>
+        <v>1.00439782114825</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">O6/O3</f>
+        <v>1.00728474162239</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">P6/P3</f>
+        <v>1.05114823259819</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">Q6/Q3</f>
+        <v>0.934429900469943</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">R6/R3</f>
+        <v>1.03412241677568</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">S6/S3</f>
+        <v>0.962833989206229</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">T6/T3</f>
+        <v>1.03684990651802</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1551.34450000001</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>12841.4135</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>11678.786</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>14190.1905</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>10966.65</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>11329.353</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>4832.09899999993</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>5932.8459999999</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <f aca="false">L7</f>
+        <v>TIM-FMP</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">M7/M4</f>
+        <v>1.18220652383656</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">N7/N4</f>
+        <v>1.68828981389574</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">O7/O4</f>
+        <v>1.0406404001046</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">P7/P4</f>
+        <v>1.05115588954467</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">Q7/Q4</f>
+        <v>1.03601520441539</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">R7/R4</f>
+        <v>0.971361540091834</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">S7/S4</f>
+        <v>1.08436006152586</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">T7/T4</f>
+        <v>1.08783080058772</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1336.99450000003</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>11114.5234999999</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>12819.1020000002</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>12426.1770000001</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>9838.17399999988</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>9940.89500000025</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>6304.85899999971</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>6485.94050000003</v>
+      </c>
+      <c r="L15" s="0" t="str">
+        <f aca="false">L8</f>
+        <v>TIM (Fallback)-FP</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">M8/M2</f>
+        <v>1.06083635874328</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">N8/N2</f>
+        <v>1.02075396280375</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">O8/O2</f>
+        <v>0.985223760974519</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">P8/P2</f>
+        <v>1.06642460462718</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">Q8/Q2</f>
+        <v>1.06543085156306</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">R8/R2</f>
+        <v>0.971929249541818</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">S8/S2</f>
+        <v>1.00273544588927</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">T8/T2</f>
+        <v>1.1869898793255</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1587.57499999995</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>12314.4555000002</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>12849.0025000002</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>12768.192</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>10393.0189999999</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>11694.0819999999</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>6353.98899999959</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>7235.5915000001</v>
+      </c>
+      <c r="L16" s="0" t="str">
+        <f aca="false">L9</f>
+        <v>TIM (Fallback)-FCP</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">M9/M3</f>
+        <v>1.04096898848968</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">N9/N3</f>
+        <v>1.02075881352964</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">O9/O3</f>
+        <v>0.985228550495148</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">P9/P3</f>
+        <v>1.0664513213369</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">Q9/Q3</f>
+        <v>1.06543606314636</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">R9/R3</f>
+        <v>1.01824937868797</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false">S9/S3</f>
+        <v>1.01352701382801</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">T9/T3</f>
+        <v>1.1870000345637</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1400.48749999981</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>11388.9484999999</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>11755.5220000003</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>12045.7504999996</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>11160.1584999999</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>9861.77499999991</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>5277.32899999991</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>5876.94900000002</v>
+      </c>
+      <c r="L17" s="0" t="str">
+        <f aca="false">L10</f>
+        <v>TIM (Fallback)-FMP</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">M10/M4</f>
+        <v>1.10164440753601</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">N10/N4</f>
+        <v>1.46776494534358</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">O10/O4</f>
+        <v>0.990534278042241</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">P10/P4</f>
+        <v>1.0664597162115</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">Q10/Q4</f>
+        <v>1.16038753052095</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">R10/R4</f>
+        <v>0.928241586779919</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <f aca="false">S10/S4</f>
+        <v>1.12145065656715</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">T10/T4</f>
+        <v>1.21613987811844</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1569.73150000023</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10625.9920000001</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>11823.9740000004</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>11272.0629999996</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>9993.85399999982</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>8808.11500000022</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>3842.22400000039</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>5115.33500000043</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1531.78399999952</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>10398.3500000001</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>13285.7324999999</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>12274.6385000004</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>9461.8004999999</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>11213.6839999999</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>5056.54999999981</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>8289.29700000025</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="0" t="str">
+        <f aca="false">L12</f>
+        <v>TIM-FP</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">AVERAGE(M12:T12)</f>
+        <v>1.03090245040328</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1646.39000000013</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>11714.7645</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>11569.7944999998</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>13299.1440000003</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>9845.57849999983</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>11971.8229999999</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>5511.8219999997</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>5189.32300000032</v>
+      </c>
+      <c r="L20" s="0" t="str">
+        <f aca="false">L13</f>
+        <v>TIM-FCP</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">AVERAGE(M13:T13)</f>
+        <v>1.03467223486699</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <f aca="false">AVERAGE(O13:T13,M13)</f>
+        <v>1.03899715111252</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1608.53899999987</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>11117.5475000003</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>12041.1324999994</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>12659.7245000005</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>9641.55200000014</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>10597.5060000001</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>7163.84100000002</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>6350.11299999897</v>
+      </c>
+      <c r="L21" s="0" t="str">
+        <f aca="false">L14</f>
+        <v>TIM-FMP</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">AVERAGE(M14:T14)</f>
+        <v>1.1427325292503</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <f aca="false">AVERAGE(O14:T14,M14)</f>
+        <v>1.06479577430095</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1450.54300000053</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>12568.9679999994</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>11440.8969999989</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>12316.7114999993</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>10567.7240000004</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>10553.4054999994</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>3518.30999999866</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>6970.58049999923</v>
+      </c>
+      <c r="L22" s="0" t="str">
+        <f aca="false">L15</f>
+        <v>TIM (Fallback)-FP</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">AVERAGE(M15:T15)</f>
+        <v>1.04504051418355</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1668.5245</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>20716.017</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10897.227</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>11362.459</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>10059.0455</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>10136.666</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>4226.51000000001</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>5047.35149999999</v>
+      </c>
+      <c r="L23" s="0" t="str">
+        <f aca="false">L16</f>
+        <v>TIM (Fallback)-FCP</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">AVERAGE(M16:T16)</f>
+        <v>1.04970252050968</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2263.4645</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>24206.9395</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>11678.797</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>14190.2030000001</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>12055.762</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>11329.3345</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>5109.5895</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>5932.85350000008</v>
+      </c>
+      <c r="L24" s="0" t="str">
+        <f aca="false">L17</f>
+        <v>TIM (Fallback)-FMP</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">AVERAGE(M17:T17)</f>
+        <v>1.13157787488998</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">AVERAGE(O17:T17,M17)</f>
+        <v>1.08355115053946</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2018.86149999988</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>21025.7909999997</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>12819.1140000001</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>12426.1885000002</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>9838.18149999972</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>9940.91450000019</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>5475.34299999988</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>6485.94849999994</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1906.20149999997</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>21080.7690000001</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>12849.0140000002</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>12768.2075</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>5205.42100000009</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>12372.0209999999</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>5360.22500000009</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>7235.59950000024</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1982.69149999926</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>18938.7825000002</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>11755.5330000003</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>12045.7615</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>11160.1685000001</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>9861.79249999998</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>5662.125</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>2948.82649999997</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2022.70200000005</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>19426.4795000004</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>11823.9850000003</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>11272.0739999996</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>10437.8420000002</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>4410.2865000004</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>4531.21999999974</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>5115.34250000026</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1974.99099999992</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>21653.8805</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>13285.7450000001</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>12274.6565</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>9461.80799999973</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>11213.6954999999</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>4881.61599999946</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>8289.30450000055</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2556.92400000012</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>22208.6505</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>7719.32966666638</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>13299.1585000004</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>9887.94050000003</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>11971.8404999999</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>2765.91100000031</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>5189.33099999977</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2007.07700000005</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>18429.9855000004</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>12041.1439999994</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>12659.7390000001</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>10196.4344999995</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>10597.5274999999</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>5334.62550000101</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>6350.12049999926</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1991.31750000082</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>23104.5299999993</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>11440.908499999</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>12316.7249999996</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>11136.2740000002</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>10553.4279999994</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>4491.2424999997</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>6970.58799999952</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1178.47100000083</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>10278.2420000006</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>10609.8249999993</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>11327.0649999995</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>8284.02749999985</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>11242.0199999996</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>5468.76099999994</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>6780.37200000137</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1293.26099999808</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>9511.50850000046</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>10061.5195000004</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>9429.80900000222</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>7336.88900000043</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>8368.62649999931</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>3606.83199999854</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>5288.60500000045</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1340.58400000073</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>12417.5664999988</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>9950.49800000153</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>10501.8030000031</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>8898.44400000013</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>6142.51999999955</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>5392.52499999851</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>4310.98099999875</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1408.29949999973</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>12800.4144999981</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>10503.1795000006</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>11862.3274999987</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>7875.9525000006</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>9189.50449999981</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>5155.88300000131</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>4956.631500002</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1009.94899999909</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>9898.65100000054</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>10851.2234999985</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>11293.8439999986</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>8358.9179999996</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>3186.26099999994</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>6211.53800000064</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1017.4290000014</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>10214.0264999997</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>10770.921000002</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>12358.6290000007</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>8662.10150000081</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>8655.18349999934</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>4148.3359999992</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>5416.31549999863</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2022.88150000013</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>9654.85400000028</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>11881.2685000002</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>18857.9764999989</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>12586.5119999982</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>16401.5800000019</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>5646.12299999967</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>8633.83150000125</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1418.23650000058</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>10816.9094999991</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>11326.3735000007</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>13350.4729999993</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>8940.09200000018</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>10076.1420000009</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>6216.42100000009</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>5185.38449999876</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>5616.1174999997</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>12910.5159999989</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>14798.2679999992</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>15327.0300000012</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>10559.6760000009</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>13001.0724999998</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>3525.87099999934</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>10597.8719999995</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1665.65649999864</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>16437.8920000009</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>20282.6624999996</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>16679.1939999983</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>13740.7880000006</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>10913.1679999996</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>7410.38000000268</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>7413.84800000116</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1178.53849999979</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>10278.3605000004</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>10609.8880000003</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>11327.1384999994</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>8284.1045000013</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>11242.1165000014</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>5468.89499999955</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>6780.45050000213</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1293.34899999946</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>9511.57850000076</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>10061.597000001</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>9429.87250000238</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>7336.95800000057</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>9277.52749999799</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>3607.01300000027</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>5288.67899999768</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1554.31949999928</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>12417.6504999995</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>9950.58350000158</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>10501.8785000015</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>8898.50899999961</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>6949.84599999711</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>5392.62900000066</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>4311.06100000069</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1408.37249999866</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>12800.523</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>10503.2510000002</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>11862.4045000002</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>7876.01750000007</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>9189.59400000051</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>5156.00499999896</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>4956.70949999988</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1077.65199999884</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>9898.72949999943</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>10851.3015000001</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>11293.9234999996</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>8359.0009999983</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>3186.37099999934</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>6211.62650000118</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1077.11100000143</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>10214.0979999993</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>10770.9859999996</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>12358.6955000013</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>8662.18150000088</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>8936.92699999921</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>4148.51000000164</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>5416.39249999821</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2022.9525000006</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>9654.95900000073</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>11881.347000001</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>18858.0415000003</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>12586.5819999985</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>16401.6610000003</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>5646.26300000027</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>8633.91449999996</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1418.30700000003</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>10816.9754999988</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>11326.4515000004</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>13350.5434999987</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>8940.16399999894</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>10372.3100000005</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>6216.55199999735</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>5185.45899999887</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>5779.90800000168</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>12910.6519999988</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>14798.3534999993</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>15327.108500002</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>10559.7710000016</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>13001.154000001</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>3525.98299999908</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>10597.9690000005</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1665.72149999999</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>16438.0124999993</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>20282.7434999999</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>16679.2714999989</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>13740.8605000004</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>13384.0180000011</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>7410.53600000218</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>7413.93150000088</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1873.19600000046</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>35768.5789999999</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>10610.0160000008</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>11327.2520000003</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>9482.22699999996</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>11242.2260000017</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>4663.20699999854</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>6780.52250000089</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1637.55849999934</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>35658.5494999997</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>10061.7119999994</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>9429.97050000168</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>8054.69099999964</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>9277.65949999914</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>3916.26900000125</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>5288.75</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2048.45500000194</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>35964.0599999987</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>9950.70650000125</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>10501.9980000015</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>9997.38350000046</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>6949.98900000006</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>2706.51250000112</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>4311.12949999981</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1760.23099999875</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>37578.9589999989</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>10503.3560000006</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>11862.5124999993</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>8575.18500000052</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>9189.69549999945</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>4200.00300000049</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>4956.78150000051</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1834.40149999969</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>34647.6355000008</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>10851.4745000005</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>11294.0360000003</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>9538.78449999914</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>19.7834999989718</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>6226.81199999899</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>6211.71199999936</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1758.77350000106</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>34848.522499999</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>10771.0920000002</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>12358.8045000024</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>9843.74000000022</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>8937.06900000013</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>3877.89650000073</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>5416.465499999</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2345.19299999997</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>23787.4335000012</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>11881.4525000025</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>18858.1589999981</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>13219.3894999996</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>16401.7755000014</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>5383.40100000054</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>8633.99650000036</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1989.08449999988</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>35511.9894999992</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>11326.5855</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>13350.6379999984</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>9497.73549999856</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>11051.6550000012</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>6801.5709999986</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>5185.53049999848</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>6351.15499999933</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>37342.2889999971</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>14798.4754999988</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>15327.2194999997</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>11070.0714999996</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>13001.2644999996</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>7489.12349999882</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>10598.0415000003</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2510.40000000037</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>44769.6734999996</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>20282.8440000005</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>16679.3824999984</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>13740.9815000016</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>13384.1685000006</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>6609.26300000027</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>7414.00150000118</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1066.15949999995</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>12450.5895</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>12027.113</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>13316.8885</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>9565.03049999988</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>8562.14899999998</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>6434.72900000005</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>6747.55399999989</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1688.65449999995</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>12239.679</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>12522.595</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>12488.7205000003</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>8931.66849999991</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>9064.11100000003</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>3875.05500000017</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>6308.7415</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1318.24100000015</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>12076.8400000001</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>11820.5150000001</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>14066.5919999999</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>12127.9405000003</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>8829.29949999996</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>4862.83799999999</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>5221.85149999964</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1391.80099999974</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>11089.6469999999</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>12199.3214999998</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>12291.2319999998</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>10865.9085000001</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>12055.0839999998</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>3862.00999999978</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>6880.57049999991</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1733.04500000039</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>10932.4809999997</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>9536.81300000008</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>13331.7249999996</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>9917.27549999952</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>12837.1910000001</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>6072.41500000004</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>7106.31149999984</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1668.18099999987</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>10723.8219999997</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>11572.8575000004</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>13172.1229999997</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>10196.9454999999</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>8464.91599999927</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>5446.44400000013</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>5728.88049999997</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1425.39950000029</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>10972.8824999998</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>11153.7054999997</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>10517.0109999999</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>10330.8599999999</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>8183.7035000003</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>5346.07800000068</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>6774.57150000008</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1147.94799999986</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>11982.6069999998</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>11033.5819999999</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>12307.5225</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>11867.3049999997</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>7924.34299999941</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>5249.19000000041</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>6010.61349999998</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1381.51649999991</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>11376.8029999994</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>11926.9220000003</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>12014.2534999996</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>10357.4275000002</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>7328.55299999937</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>5925.70500000007</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>6657.14600000065</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2422.20050000027</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>12967.7649999987</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>14592.0040000007</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>19386.311999999</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>14436.2175000003</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>17258.5010000011</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>5302.68300000019</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>16742.4574999996</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1138.64950000006</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>12450.6745</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>12027.1884999999</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>13316.972</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>9565.10749999993</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>9455.527</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>6434.9160000002</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>6747.64150000003</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1755.80450000009</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>12239.7420000001</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>12522.6704999998</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>12488.7995000002</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>8931.73849999998</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>10103.6869999999</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>3875.15100000007</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>6308.84299999988</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1318.31049999991</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>12076.9549999998</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>11820.5965000002</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>14066.6624999999</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>12128.01</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>9776.46849999996</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>4862.93999999994</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>5221.92699999991</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1440.61449999968</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>11089.7229999993</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>12199.406</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>12291.3069999998</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>10865.9764999996</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>12055.1809999999</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>3862.13400000054</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>6880.65700000012</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1733.12199999997</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>10932.5419999999</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>9536.89100000029</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>13331.7914999998</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>9917.3459999999</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>13762.8460000004</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>6072.51499999966</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>7106.40699999966</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1668.25549999997</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>10723.8939999999</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>11572.9360000002</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>13174.9674999998</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>10197.0079999999</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>8465.00499999989</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>5446.54900000058</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>5728.96149999974</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1425.46900000004</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>10972.9545</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>11153.7774999999</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>10517.0825</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>10330.9329999997</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>9593.08349999972</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>5346.19600000046</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>6774.65599999996</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1148.01599999983</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>11982.6775000002</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>11033.6610000003</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>12307.5945000001</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>11867.3844999997</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>9236.9879999999</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>5249.31799999997</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>6010.71150000021</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1381.58300000057</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>11376.8669999987</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>11926.9954999993</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>12014.328999999</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>10357.4965000004</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>8336.32799999975</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>5925.84899999946</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>6657.22550000064</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2422.26750000007</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>12967.8329999987</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>14592.0825000005</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>19386.3670000006</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>14436.2855000002</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>17258.5895000007</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>5302.97800000012</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>16742.5429999996</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2308.66249999998</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>36395.6214999999</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>12027.3115</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>13317.105</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>10166.6604999999</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>9455.45500000008</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>6467.84750000003</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>6747.71699999995</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2319.87000000034</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>23823.4235000003</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>12522.7784999998</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>12488.9070000004</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>9524.69350000005</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>10103.7154999999</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>4762.74700000021</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>6308.92099999986</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1857.50350000011</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>37903.2634999999</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>11820.7005000003</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>14066.7759999998</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>12780.5534999999</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>9776.62599999993</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>4862.89999999991</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>3481.35633333338</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1873.84749999992</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>17827.4065</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>12199.5149999999</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>12291.4264999998</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>12000.125</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>12055.3079999993</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>4610.0365000004</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>6880.72799999965</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2332.67000000039</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>35347.9274999998</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>6359.51100000025</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>13331.9229999995</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>10006.5609999998</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>13763.0035000001</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>4787.67750000022</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>7106.48699999973</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2125.179</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>35929.1464999998</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>11573.0474999999</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>13175.1329999999</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>10808.3685000003</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>4235.5839999998</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>4862.20850000018</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>5729.03249999974</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2305.21700000018</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>35872.3709999998</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>11153.8850000002</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>10517.1814999999</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>10955.1004999997</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>9593.2379999999</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>5271.90950000007</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>6774.73200000031</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2146.02850000001</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>38262.3115000003</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>11033.7860000003</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>12307.6964999996</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>13103.5075000003</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>4623.55899999989</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>4645.33650000021</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>6010.79400000023</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>2227.66550000105</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>35063.5089999996</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>11927.1009999998</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>12014.4399999995</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>10904.3600000003</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>4175.14199999999</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>5532.65150000062</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>6657.3004999999</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2968.92100000009</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>12967.8709999993</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>14592.1955000004</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>19386.4729999993</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>15137.7034999998</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>17258.7105</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>7845.09900000039</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>16742.6269999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7662,22 +12281,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L1" s="0" t="str">
         <f aca="false">C1</f>
@@ -8307,7 +12926,7 @@
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -8540,7 +13159,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -8556,4 +13175,2714 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:X64"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="0" t="str">
+        <f aca="false">C1</f>
+        <v>google.com</v>
+      </c>
+      <c r="P1" s="0" t="str">
+        <f aca="false">D1</f>
+        <v>youtube.com</v>
+      </c>
+      <c r="Q1" s="0" t="str">
+        <f aca="false">E1</f>
+        <v>tmall.com</v>
+      </c>
+      <c r="R1" s="0" t="str">
+        <f aca="false">F1</f>
+        <v>facebook.com</v>
+      </c>
+      <c r="S1" s="0" t="str">
+        <f aca="false">G1</f>
+        <v>baidu.com</v>
+      </c>
+      <c r="T1" s="0" t="str">
+        <f aca="false">H1</f>
+        <v>qq.com</v>
+      </c>
+      <c r="U1" s="0" t="str">
+        <f aca="false">I1</f>
+        <v>sohu.com</v>
+      </c>
+      <c r="V1" s="0" t="str">
+        <f aca="false">J1</f>
+        <v>taobao.com</v>
+      </c>
+      <c r="W1" s="0" t="str">
+        <f aca="false">K1</f>
+        <v>en.wikipedia.org</v>
+      </c>
+      <c r="X1" s="0" t="str">
+        <f aca="false">L1</f>
+        <v>amazon.com</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="0" t="str">
+        <f aca="false">A3</f>
+        <v>Baseline-FCP</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">AVERAGE(C3:C12)</f>
+        <v>710.808850000263</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">AVERAGE(D3:D12)</f>
+        <v>6363.56399999992</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">AVERAGE(E3:E12)</f>
+        <v>1709.64040000141</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">AVERAGE(F3:F12)</f>
+        <v>6584.39774999989</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">AVERAGE(G3:G12)</f>
+        <v>843.911599996686</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">AVERAGE(H3:H12)</f>
+        <v>5220.68040000796</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">AVERAGE(I3:I12)</f>
+        <v>2402.80060000122</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <f aca="false">AVERAGE(J3:J12)</f>
+        <v>1917.80399999917</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <f aca="false">AVERAGE(K3:K12)</f>
+        <v>6304.38434999993</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <f aca="false">AVERAGE(L3:L12)</f>
+        <v>4621.24899999991</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>756.594999999972</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>6195.6884999997</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1825.80099999905</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7103.89150000014</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>861.143999993801</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>5538.84800001979</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>2497.48900002241</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1965.10699999332</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>7095.11699999985</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>5423.10349999997</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <f aca="false">A13</f>
+        <v>Baseline-FMP</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">AVERAGE(C13:C22)</f>
+        <v>1483.73885000015</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">AVERAGE(D13:D22)</f>
+        <v>13631.7151999999</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">AVERAGE(E13:E22)</f>
+        <v>1709.71580000222</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">AVERAGE(F13:F22)</f>
+        <v>6584.40939999993</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">AVERAGE(G13:G22)</f>
+        <v>843.924299994111</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">AVERAGE(H13:H22)</f>
+        <v>5220.69140000343</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">AVERAGE(I13:I22)</f>
+        <v>2629.28049999774</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">AVERAGE(J13:J22)</f>
+        <v>1917.82509999871</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <f aca="false">AVERAGE(K13:K22)</f>
+        <v>6023.05659999976</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <f aca="false">AVERAGE(L13:L22)</f>
+        <v>5595.48769999994</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>687.578000000212</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6797.78600000031</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1672.41699999571</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7593.70249999966</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>852.672999978065</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>5571.76000002027</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1984.54300001264</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1953.30200001597</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>6400.02749999985</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>4980.72799999965</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <f aca="false">A24</f>
+        <v>TIM (Fallback)-FCP</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">AVERAGE(C24:C33)</f>
+        <v>760.314099999983</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">AVERAGE(D24:D33)</f>
+        <v>6553.55875000002</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">AVERAGE(E24:E33)</f>
+        <v>2114.16229999959</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">AVERAGE(F24:F33)</f>
+        <v>6172.98100000001</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">AVERAGE(G24:G33)</f>
+        <v>898.193899995088</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">AVERAGE(H24:H33)</f>
+        <v>5269.18600000441</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">AVERAGE(I24:I33)</f>
+        <v>2188.29169999659</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">AVERAGE(J24:J33)</f>
+        <v>1723.80710000098</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <f aca="false">AVERAGE(K24:K33)</f>
+        <v>6286.11094999984</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <f aca="false">AVERAGE(L24:L33)</f>
+        <v>4619.21859999995</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>685.095000000671</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5650.29850000003</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1602.97100001574</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5997.34700000007</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>827.376000016928</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>3278.10699999332</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1928.99300000072</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1972.7120000124</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>5869.05849999981</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>4032.56999999937</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <f aca="false">A34</f>
+        <v>TIM (Fallback)-FMP</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">AVERAGE(C34:C43)</f>
+        <v>1573.40766666667</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">AVERAGE(D34:D43)</f>
+        <v>26053.1922500001</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">AVERAGE(E34:E43)</f>
+        <v>2114.27320000231</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">AVERAGE(F34:F43)</f>
+        <v>6230.38344999999</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">AVERAGE(G34:G43)</f>
+        <v>898.330499994756</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">AVERAGE(H34:H43)</f>
+        <v>5269.32540000379</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">AVERAGE(I34:I43)</f>
+        <v>2671.90019999743</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">AVERAGE(J34:J43)</f>
+        <v>1723.92829999626</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <f aca="false">AVERAGE(K34:K43)</f>
+        <v>6006.20249999974</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <f aca="false">AVERAGE(L34:L43)</f>
+        <v>6143.47059999996</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>702.520000000019</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6908.06300000008</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1743.31099998951</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>6388.87599999923</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>852.749000012875</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>5518.93200001121</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2205.97400000691</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1446.39199998975</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>6106.36800000025</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>5130.29749999987</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <f aca="false">A45</f>
+        <v>TIM-FCP</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">AVERAGE(C45:C54)</f>
+        <v>738.417499999888</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">AVERAGE(D45:D54)</f>
+        <v>6339.98624999998</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">AVERAGE(E45:E54)</f>
+        <v>2130.31769999862</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">AVERAGE(F45:F54)</f>
+        <v>6277.97114999984</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">AVERAGE(G45:G54)</f>
+        <v>1027.44069999755</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">AVERAGE(H45:H54)</f>
+        <v>5099.55890000463</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">AVERAGE(I45:I54)</f>
+        <v>2225.69119999111</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">AVERAGE(J45:J54)</f>
+        <v>1673.35539999604</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">AVERAGE(K45:K54)</f>
+        <v>6245.89189999988</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <f aca="false">AVERAGE(L45:L54)</f>
+        <v>4460.14830000019</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>708.933500000276</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6937.78199999966</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1570.39199998975</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>6356.45999999996</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>835.579999983311</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>5543.92199999094</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>3735.02599999309</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1990.06399998069</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>6385.8945000004</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>4964.12049999973</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <f aca="false">A55</f>
+        <v>TIM-FMP</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">AVERAGE(C55:C64)</f>
+        <v>1538.939625</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">AVERAGE(D55:D64)</f>
+        <v>29714.1339000002</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">AVERAGE(E55:E64)</f>
+        <v>2130.42320000529</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">AVERAGE(F55:F64)</f>
+        <v>6278.08959999988</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">AVERAGE(G55:G64)</f>
+        <v>1027.55480000079</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">AVERAGE(H55:H64)</f>
+        <v>5099.66990000308</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">AVERAGE(I55:I64)</f>
+        <v>2909.81719999015</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">AVERAGE(J55:J64)</f>
+        <v>1673.47309999466</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <f aca="false">AVERAGE(K55:K64)</f>
+        <v>5972.56239999989</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <f aca="false">AVERAGE(L55:L64)</f>
+        <v>6511.3438500003</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>693.855500000063</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5160.97800000012</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1726.68500000238</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>6204.18449999951</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>830.033999979496</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>4470.81900000572</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1991.52699998021</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>2045.41899999976</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>6651.64099999983</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>4206.80050000036</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>703.250999999698</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6763.83099999977</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1794.56100001931</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6182.68500000006</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>855.715000003576</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>5542.77700001001</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1998.16999998689</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1936.77500000596</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>6321.99049999984</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>4665.54800000042</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>692.68450000044</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7535.0290000001</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1772.85800001025</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7259.01350000035</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>848.988999992609</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>5559.97900000215</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2209.34200000763</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1892.11700001359</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>6468.81849999912</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>4099.84100000002</v>
+      </c>
+      <c r="N10" s="0" t="str">
+        <f aca="false">N4</f>
+        <v>TIM (Fallback)-FCP</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">O4/O2</f>
+        <v>1.06964636132443</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">P4/P2</f>
+        <v>1.02985665737001</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">Q4/Q2</f>
+        <v>1.2366122723807</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">R4/R2</f>
+        <v>0.937516419022547</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">S4/S2</f>
+        <v>1.06432225839604</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">T4/T2</f>
+        <v>1.00929104949546</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">U4/U2</f>
+        <v>0.910725467604546</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">V4/V2</f>
+        <v>0.898844251029681</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <f aca="false">W4/W2</f>
+        <v>0.997101477482082</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <f aca="false">X4/X2</f>
+        <v>0.999560638260359</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>743.315500000492</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>5836.97200000007</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1780.52099999785</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6344.69699999969</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>805.069000005722</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>5527.70700001717</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1606.93299999833</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>2011.86199998856</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>5642.39100000076</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>4339.80099999998</v>
+      </c>
+      <c r="N11" s="0" t="str">
+        <f aca="false">N5</f>
+        <v>TIM (Fallback)-FMP</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">O5/O3</f>
+        <v>1.06043436597114</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">P5/P3</f>
+        <v>1.9112189381715</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">Q5/Q3</f>
+        <v>1.23662260125313</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">R5/R3</f>
+        <v>0.946232694765312</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">S5/S3</f>
+        <v>1.06446810454566</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">T5/T3</f>
+        <v>1.00931562436353</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">U5/U3</f>
+        <v>1.01620964366477</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">V5/V3</f>
+        <v>0.898897558488214</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <f aca="false">W5/W3</f>
+        <v>0.997201736407388</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <f aca="false">X5/X3</f>
+        <v>1.09793300054971</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>734.26050000079</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>5849.21199999936</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1606.88699999452</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>6413.12050000019</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>869.787000000477</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>5653.95300000906</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>3870.00900000334</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1964.28999999166</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>6102.53699999955</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>4369.6799999997</v>
+      </c>
+      <c r="N12" s="0" t="str">
+        <f aca="false">N6</f>
+        <v>TIM-FCP</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">O6/O2</f>
+        <v>1.0388411736849</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">P6/P2</f>
+        <v>0.996294882867535</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">Q6/Q2</f>
+        <v>1.24606186189614</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">R6/R2</f>
+        <v>0.953461711817143</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">S6/S2</f>
+        <v>1.21747431840205</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">T6/T2</f>
+        <v>0.976799671551786</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">U6/U2</f>
+        <v>0.926290429588698</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">V6/V2</f>
+        <v>0.872537235294519</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <f aca="false">W6/W2</f>
+        <v>0.990721940993327</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <f aca="false">X6/X2</f>
+        <v>0.965139143119161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1529.64849999989</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>13812.9189999998</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1825.81200000644</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7103.902</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>861.160999983549</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>5538.85800001025</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>2497.5</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1965.125</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>7095.13199999998</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>5423.10999999987</v>
+      </c>
+      <c r="N13" s="0" t="str">
+        <f aca="false">N7</f>
+        <v>TIM-FMP</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">O7/O3</f>
+        <v>1.03720383475828</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">P7/P3</f>
+        <v>2.17977954087541</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">Q7/Q3</f>
+        <v>1.24606861561584</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">R7/R3</f>
+        <v>0.953478014292359</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">S7/S3</f>
+        <v>1.2175911986513</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">T7/T3</f>
+        <v>0.976818874986505</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">U7/U3</f>
+        <v>1.10669713634306</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">V7/V3</f>
+        <v>0.872589007201847</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <f aca="false">W7/W3</f>
+        <v>0.991616515773757</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <f aca="false">X7/X3</f>
+        <v>1.16367762724246</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1542.53099999996</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>15360.7415</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1672.43200001121</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>7593.71349999961</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>852.683999985456</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>5571.77200001478</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1984.55500000715</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1953.32000002265</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>6400.03949999996</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>5475.6259999997</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1519.39650000026</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>13160.4685</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1602.98300001025</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>5997.35899999971</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>827.386000007391</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>3278.11800000071</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1929.00400000811</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1972.79399999976</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>5869.06999999983</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>4539.77499999991</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1656.16149999993</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10570.6979999999</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1743.32299998403</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>6388.8870000001</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>852.761999994516</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>5518.94299998879</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>2205.98399999738</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1446.40299999714</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>6106.37900000019</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>7068.73199999984</v>
+      </c>
+      <c r="N16" s="0" t="str">
+        <f aca="false">N10</f>
+        <v>TIM (Fallback)-FCP</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">AVERAGE(O10:X10)</f>
+        <v>1.01534768523659</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1525.89150000038</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>15220.7735000001</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1570.40299999714</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>6356.47200000007</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>835.595999985933</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>5543.93299999833</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>3735.03700000048</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1990.07499998808</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>6385.90550000034</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>5474.29799999949</v>
+      </c>
+      <c r="N17" s="0" t="str">
+        <f aca="false">N11</f>
+        <v>TIM (Fallback)-FMP</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">AVERAGE(O11:X11)</f>
+        <v>1.12385342681804</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1316.18249999965</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>12543.2999999998</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1726.6969999969</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>6204.19649999961</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>830.049999982119</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>4470.83100000024</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1991.53899997473</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2045.43000000715</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>6651.65149999969</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>4885.071</v>
+      </c>
+      <c r="N18" s="0" t="str">
+        <f aca="false">N12</f>
+        <v>TIM-FCP</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">AVERAGE(O12:X12)</f>
+        <v>1.01836223692153</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1370.43699999992</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>11467.2924999995</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1794.5720000267</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>6182.69699999969</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>855.726999998093</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>5542.7879999876</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1998.18099999428</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1936.79199999571</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>6322.00449999981</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>4878.78000000026</v>
+      </c>
+      <c r="N19" s="0" t="str">
+        <f aca="false">N13</f>
+        <v>TIM-FMP</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">AVERAGE(O13:X13)</f>
+        <v>1.17455203657408</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1396.98300000001</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>16087.8445000006</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1772.86899998784</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>7259.02600000054</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>849.000999987126</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>5559.98899999261</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>2209.35199999809</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1892.13699999452</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>6468.83049999923</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>6627.89500000048</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1494.54550000094</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>13320.5190000003</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1780.5379999876</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>6344.70849999972</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>805.078999996185</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>5527.71800002456</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>3871.63199999928</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>2011.87299999595</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>2829.00549999904</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>5536.7089999998</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1485.61150000058</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>14772.5954999989</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1607.52900001407</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>6413.1325000003</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>869.797000020743</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>5653.96400001645</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>3870.02099999785</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1964.30199998617</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>6102.54799999949</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>6044.88100000005</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>766.105500000063</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>7488.89350000001</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2053.83599999547</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>6562.13599999994</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1014.22200000286</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>5242.7120000124</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>2530.00499999523</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1969.68999999762</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>6493.37000000011</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>5048.42000000016</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>755.554500000086</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>5486.62349999975</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>2052.23600000143</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>6159.92699999968</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>847.689999997616</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>5115.16499999166</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1928.79699999094</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1968.49100002646</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>6045.75549999951</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>4149.1584999999</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>999.478500000201</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>6985.85850000056</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2246.55200001597</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>6665.68200000003</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>886.416999995708</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>3311.60800001025</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1617.18299999833</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1956.70300000906</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>5630.69799999986</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>4019.86050000042</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>722.472499999683</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>5884.83849999961</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2141.59399998188</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>6383.96250000037</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>878.250999987125</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>5233.66400000453</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>2433.04699999094</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1967.18299999833</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>6551.83149999939</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>4881.2165000001</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>732.122999999672</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>6164.10199999996</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2078.16100001335</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>5710.99000000022</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>862.100999981165</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>5298.56099998951</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>2092.06200000644</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1319.20199999213</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>6395.04549999954</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>4268.30899999989</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>708.029499999713</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>5616.79899999965</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2137.85899999738</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>5764.02600000007</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>841.613000005484</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>5169.62200000882</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>2236.95600000024</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1344.17000001669</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>5976.95049999934</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>5025.3599999994</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>730.980499999598</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>5587.02900000056</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2204.16699999571</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>6342.27949999971</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1073.1629999876</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>6456.4849999845</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1454.43600001931</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>1970.43299999833</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>6557.66599999927</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>4950.83549999911</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>734.493999999948</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>7113.02999999933</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2045.56999999285</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>6334.19449999929</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>855.212000012398</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>6536.18100002408</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>2806.56999999285</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1361.73299998045</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>6336.92550000083</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>4542.94199999981</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>743.878000000492</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>7025.52400000021</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2088.84200000763</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>5745.15600000042</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>865.009999990463</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>5112.94100001454</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>2547.68899998069</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>1390.54600000381</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>5972.35699999984</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>4274.87000000011</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>710.025000000373</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>8182.88950000051</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2092.80599999428</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>6061.45650000032</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>858.259999990463</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>5214.92100000382</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>2236.17199999094</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>1989.91999998689</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>6900.51000000071</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>5031.21400000062</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1445.80249999999</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>29438.483</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2053.93799999356</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>6562.24850000022</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1014.33399999142</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>5242.81600001454</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>2530.09199997783</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>1969.81499999762</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>6493.48450000002</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>7437.95350000006</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1500.7490000003</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>17265.1040000003</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2052.33799999952</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>6160.04099999974</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>847.828999996185</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>5115.27699998021</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1928.89800000191</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>1968.60400000215</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>6045.86499999976</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>5005.97200000007</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1645.01549999975</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>30225.4235000005</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2246.65400001407</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>6665.79149999982</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>886.773000001907</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>3311.72699999809</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>3928.93099999428</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1956.82100000978</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>2830.45449999953</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>4002.02500000037</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>29586.8865</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2141.71099999547</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>6384.07599999989</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>878.358999997377</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>5233.78600001335</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>2433.13899999857</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1967.30899998546</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>6552.0129999998</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>7121.34700000007</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1446.58799999952</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>29950.1274999999</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>2078.27600002289</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>5711.10599999968</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>862.207999974489</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>5298.66600000858</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>2092.17500001192</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1319.30099999905</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>6395.16349999979</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>6622.26049999986</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1586.70750000002</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>25383.4324999996</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>2137.97999998927</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>5764.15850000037</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>841.717000007629</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>5169.72499999404</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>2237.03700000048</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>1344.27700001001</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>5977.0634999997</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>5368.00249999948</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1627.91499999957</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>29091.0300000003</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2204.27099999785</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>6342.38950000005</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1073.26800000668</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>6456.5909999907</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>3978.0340000093</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>1970.56299999356</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>6557.77749999892</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>6024.04949999973</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1523.19900000002</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>19369.2094999999</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>2045.68000000715</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>6334.31099999975</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>855.330000013113</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>6536.5870000124</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>2806.65500000119</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1361.85199999809</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>6337.04499999993</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>6496.65749999974</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1813.06000000052</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>31411.7650000006</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2088.95300000906</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>6318.13700000104</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>865.116999983788</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>5113.04800000787</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>2547.77399998903</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1390.66099998355</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>5972.47649999987</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>5811.32849999983</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1571.6325000003</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>18810.4610000001</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2092.93099999428</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>6061.57549999934</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>858.369999974966</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>5215.03100001812</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>2236.26699998975</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>1990.07999998331</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>6900.68200000003</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>7545.11000000034</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>727.949999999255</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>6602.47600000072</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>2117.79300001264</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>5704.92299999949</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>840.687000006437</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>3113.84399998188</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>2511.09799998999</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1528.5150000155</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>6389.45150000043</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>4354.79999999981</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>739.54099999927</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>6978.37950000074</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>2189.90299999714</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>6005.97249999922</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>951.821000009775</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>6556.39500001073</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1600.22099998593</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>1539.86599999666</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>6403.20599999931</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>4264.26250000019</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>737.15249999892</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>7020.11799999978</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>2126.83900001645</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>5931.4244999988</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>856.284000009298</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>6321.71900001168</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1589.92299997807</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1914.26800000668</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>5473.41000000015</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>4281.70200000051</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>742.306499999948</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>5933.40149999969</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>2166.64499998093</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>6618.72800000012</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>852.54699999094</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>5287.46299999952</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>3865.89699998498</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>2233.27600002289</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>5923.16700000037</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>4975.71949999966</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>742.050999999978</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>5812.71900000051</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>2056.41999998689</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>6655.77850000001</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>857.851000010967</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>6269.31400001049</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>2284.97600001097</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>1332.44799998403</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>6439.37999999989</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>5060.10500000138</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>744.974999999628</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>6818.44599999953</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>2080.89200001955</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>6926.97550000064</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1381.44499999285</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>5314.75900000334</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1605.68099999428</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1958.09899997711</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>6200.98949999921</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>4313.28399999999</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>730.319500000216</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>5932.31850000005</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>2075.8030000031</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>6420.40799999982</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>870.847000002861</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>5282.48300001025</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>2269.17300000787</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1347.36299997568</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>6260.92449999973</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>4364.89599999972</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>741.596000000834</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>5868.13949999958</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2104.21799999475</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>6439.51049999986</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>1420.03700000048</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>6426.76699998975</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>2213.90599998832</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>1556.43799999356</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>6427.38199999929</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>4241.40899999999</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>729.535000000149</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>6841.25749999937</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>2200.44099998474</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>6146.41800000053</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>840.017999976873</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>3228.06600001454</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>2111.22999998927</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>2008.97999998927</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>6494.85900000017</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>4439.85100000072</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>748.748500000685</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>5592.60699999984</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>2184.22299998999</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>5929.57299999986</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1402.86999997497</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>3194.77900001407</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>2204.8069999814</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>1314.30099999905</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>6446.14950000029</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>4305.45399999991</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1481.14899999928</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>30895.2385</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>2117.90200001001</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>5705.06349999923</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>840.799000024796</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>3113.96099999547</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>2511.17399999499</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>1528.61700001359</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>6389.57050000038</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>6909.88750000019</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1697.02950000018</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>28466.7315000007</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>2190.01700001955</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>6006.08600000013</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>951.920000016689</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>6556.49399998784</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>3881.20899999142</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>1539.97900000215</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>6403.30950000044</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>4853.84400000051</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>31152.5440000007</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>2126.94100001454</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>5931.55149999913</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>856.384000003338</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>6321.8220000267</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>3848.54799997807</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>1914.39699998498</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>2739.07400000002</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>6349.83850000147</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1480.23249999899</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>30127.1020000009</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>2166.74799999595</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>6618.83999999985</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>852.680999994278</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>5287.56700000167</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>3865.99399998784</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>2233.39800000191</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>5923.28849999979</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>7341.40849999897</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1785.32349999994</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>28370.9234999996</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>2056.52699998021</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>6655.89499999955</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>857.949999988079</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>6269.42700001597</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>2285.06900000572</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>1332.55499997735</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>6439.50100000016</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>8281.95150000043</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1553.52550000045</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>30666.9804999996</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>2080.99100002646</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>6927.08400000073</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>1381.57999998331</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>5314.86599999666</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>3906.68799999356</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>1958.22299998999</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>6201.10300000012</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>4646.36400000006</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1573.78400000092</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>29007.1325000003</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>2075.90199998021</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>6420.52500000037</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>870.969999998808</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>5282.59799998999</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>2269.25699999928</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>1347.48799997568</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>6261.04349999875</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>5952.35050000064</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1410.40350000001</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>29515.5900000008</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2104.31400001049</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>6439.62550000008</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>1420.1400000155</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>6426.88199999929</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>2213.99499997497</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>1556.55799999833</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>6427.48749999981</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>6149.50449999981</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>30581.6059999997</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>2200.55500000715</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>6146.53550000023</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>840.150999993086</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>3228.18700000644</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>2111.32799997926</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>2009.09900000691</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>6494.98249999993</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>8627.47000000067</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1330.06950000022</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>28357.4904999994</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>2184.33500000834</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>5929.68999999948</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>1402.97299998999</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>3194.89500001073</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>2204.90999999642</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>1314.41699999571</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>6446.2639999995</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>6000.81950000022</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/benchmark/macro/result/results.xlsx
+++ b/benchmark/macro/result/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lwyeluo/Workspaces/lab-project/browser/tim-evaluate/benchmark/macro/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F159C6D-3F01-4F4D-B67A-BBAB804851C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5172781-A42A-014F-987A-54E6C031C267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24640" windowHeight="15540" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="24640" windowHeight="15540" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCP-FMP" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1600" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1600" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1172,7 +1172,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1600" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1600" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2034,7 +2034,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1600" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1600" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3547,7 +3547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W184"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
@@ -9570,7 +9570,7 @@
   <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M13" sqref="M13:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12915,7 +12915,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13826,8 +13826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
